--- a/Project2/info/Timetable.xlsx
+++ b/Project2/info/Timetable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EB414F-EA27-4832-9CDE-51A7196B3C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3AE3F1-73F8-4AEE-86F9-0C81B0AAD492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line 1" sheetId="1" r:id="rId1"/>
@@ -14,21 +14,17 @@
     <sheet name="Line 4" sheetId="4" r:id="rId4"/>
     <sheet name="Line 5" sheetId="5" r:id="rId5"/>
     <sheet name="Line 6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId9"/>
-    <sheet name="Sheet4" sheetId="19" r:id="rId10"/>
-    <sheet name="Sheet5" sheetId="20" r:id="rId11"/>
-    <sheet name="Sheet6" sheetId="21" r:id="rId12"/>
-    <sheet name="Line 7" sheetId="7" r:id="rId13"/>
-    <sheet name="Line 8" sheetId="8" r:id="rId14"/>
-    <sheet name="Line 9" sheetId="9" r:id="rId15"/>
-    <sheet name="Line 10" sheetId="10" r:id="rId16"/>
-    <sheet name="Line 11" sheetId="11" r:id="rId17"/>
-    <sheet name="Line 12" sheetId="12" r:id="rId18"/>
-    <sheet name="Line 13" sheetId="13" r:id="rId19"/>
-    <sheet name="Line 16" sheetId="14" r:id="rId20"/>
-    <sheet name="Line 17" sheetId="15" r:id="rId21"/>
+    <sheet name="Line 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Line 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Line 9" sheetId="9" r:id="rId9"/>
+    <sheet name="Line 10 1" sheetId="22" r:id="rId10"/>
+    <sheet name="Line 10 2" sheetId="10" r:id="rId11"/>
+    <sheet name="Line 11 1" sheetId="11" r:id="rId12"/>
+    <sheet name="Line 11 2" sheetId="23" r:id="rId13"/>
+    <sheet name="Line 12" sheetId="12" r:id="rId14"/>
+    <sheet name="Line 13" sheetId="13" r:id="rId15"/>
+    <sheet name="Line 16" sheetId="14" r:id="rId16"/>
+    <sheet name="Line 17" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="350">
   <si>
     <t>莘庄</t>
   </si>
@@ -657,12 +653,6 @@
     <t>松江南站</t>
   </si>
   <si>
-    <t>往航中路↓</t>
-  </si>
-  <si>
-    <t>往虹桥火车站↓</t>
-  </si>
-  <si>
     <t>新江湾城</t>
   </si>
   <si>
@@ -733,12 +723,6 @@
   </si>
   <si>
     <t>航中路</t>
-  </si>
-  <si>
-    <t>往嘉定北↓</t>
-  </si>
-  <si>
-    <t>往花桥↓</t>
   </si>
   <si>
     <t>罗山路</t>
@@ -1012,24 +996,6 @@
       <t>lu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>次00:11</t>
-  </si>
-  <si>
-    <t>次00:14</t>
-  </si>
-  <si>
-    <t>次00:05</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>次00:08</t>
-  </si>
-  <si>
-    <t>次00:01</t>
   </si>
   <si>
     <t>秀沿路</t>
@@ -1604,7 +1570,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1747,6 +1713,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2074,10 +2046,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2312,324 +2284,1068 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB571E84-EE78-4860-9F04-95119B3F3CA3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F5D246-9742-41FC-96D7-01A75776877D}">
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.93402777777777779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.93472222222222223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.93611111111111101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.93888888888888899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.94027777777777777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.94166666666666676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.94305555555555554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.94444444444444453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.9458333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.9472222222222223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.94861111111111107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.95347222222222217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.95694444444444438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.95972222222222225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.96111111111111114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.96388888888888891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0.96944444444444444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.97083333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8BF8E5-905F-406A-BBE4-A9D624E5CD3B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C1:C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.93819444444444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.93958333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.94236111111111109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.94374999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.94652777777777775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.94791666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.94930555555555562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.9506944444444444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.95208333333333339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.95347222222222217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.95694444444444438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.9604166666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.96180555555555547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.96319444444444446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.96597222222222223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.96736111111111101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.97013888888888899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="22.5">
+      <c r="A27" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.97361111111111109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="22.5">
+      <c r="A28" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.9770833333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I44:I74">
+    <sortCondition ref="I44"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A563AF-1E88-427D-AAA6-4152FB25E9EE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.94027777777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.94236111111111109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.94444444444444453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.94652777777777775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.94930555555555562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.95277777777777783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="22.5">
+      <c r="A10" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.95624999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.95972222222222225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.96111111111111114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.96944444444444444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.97083333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.97291666666666676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.97361111111111109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.9770833333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.98055555555555562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.9819444444444444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0.98402777777777783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.9868055555555556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.9902777777777777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.99305555555555547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" s="19">
+        <v>0.99444444444444446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B31" s="21">
+        <v>0.99722222222222223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B32" s="19">
+        <v>0.99930555555555556</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G49:G87">
+    <sortCondition ref="G49"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2FD463-8994-4E99-B1A2-EC39567131AC}">
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>292</v>
+      <c r="B1" s="50" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
-        <v>132</v>
+      <c r="A2" s="48" t="s">
+        <v>303</v>
       </c>
       <c r="B2" s="19">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.9194444444444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.92152777777777783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.92569444444444438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.92847222222222225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.93055555555555547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.93194444444444446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="22.5">
+      <c r="A10" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.93541666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="48" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="21">
         <v>0.9375</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.93958333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.94097222222222221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.94305555555555554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="12" spans="1:2">
+      <c r="A12" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.93888888888888899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.94027777777777777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.94166666666666676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21">
         <v>0.94444444444444453</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.94652777777777775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.94791666666666663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.94930555555555562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.9506944444444444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="16" spans="1:2">
+      <c r="A16" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.9458333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.94861111111111107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="21">
         <v>0.95208333333333339</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.95416666666666661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.9555555555555556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.95694444444444438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.9590277777777777</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.9604166666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.96388888888888891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.96527777777777779</v>
-      </c>
-    </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.96736111111111101</v>
+      <c r="A20" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.95277777777777783</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.96875</v>
+      <c r="A21" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.97013888888888899</v>
+      <c r="A22" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.95624999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.97152777777777777</v>
+      <c r="A23" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.97291666666666676</v>
+      <c r="A24" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.95972222222222225</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="3">
+      <c r="A25" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.96111111111111114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0.96319444444444446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.96597222222222223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.96944444444444444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" s="21">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.97638888888888886</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.97777777777777775</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.97986111111111107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.9819444444444444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.98402777777777783</v>
-      </c>
-    </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.98611111111111116</v>
+      <c r="A31" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" s="19">
+        <v>0.9784722222222223</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="A32" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" s="21">
+        <v>0.98055555555555562</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="19">
+        <v>0.98263888888888884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="21">
+        <v>0.98472222222222217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" s="19">
         <v>0.98749999999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.9902777777777777</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.9916666666666667</v>
+    <row r="36" spans="1:2">
+      <c r="A36" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" s="21">
+        <v>0.98888888888888893</v>
       </c>
     </row>
   </sheetData>
@@ -2639,1423 +3355,6 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A24:A30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0.93888888888888899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="19">
-        <v>0.94027777777777777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0.94166666666666676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.94444444444444453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="21">
-        <v>0.94652777777777775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22.5">
-      <c r="A8" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0.94930555555555562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="21">
-        <v>0.9506944444444444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.95208333333333339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="21">
-        <v>0.95347222222222217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="21">
-        <v>0.95694444444444438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="21">
-        <v>0.95972222222222225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="19">
-        <v>0.96111111111111114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="21">
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0.96388888888888891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="21">
-        <v>0.96527777777777779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0.96736111111111101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="21">
-        <v>0.96875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="19">
-        <v>0.97083333333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="21">
-        <v>0.97222222222222221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="19">
-        <v>0.97361111111111109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" s="21">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" s="19">
-        <v>0.97638888888888886</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="21">
-        <v>0.97777777777777775</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28" s="19">
-        <v>0.97916666666666663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="21">
-        <v>0.98055555555555562</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="19">
-        <v>0.9819444444444444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="21">
-        <v>0.98333333333333339</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0.93888888888888899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" s="19">
-        <v>0.94097222222222221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0.94305555555555554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.94444444444444453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" s="21">
-        <v>0.94652777777777775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0.94861111111111107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="B9" s="21">
-        <v>0.9506944444444444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.95347222222222217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="21">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0.95763888888888893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="21">
-        <v>0.9590277777777777</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.96180555555555547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B15" s="21">
-        <v>0.96388888888888891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="19">
-        <v>0.96527777777777779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="21">
-        <v>0.96666666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0.96805555555555556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="21">
-        <v>0.96944444444444444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0.97152777777777777</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="21">
-        <v>0.97361111111111109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="19">
-        <v>0.97569444444444453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="22.5">
-      <c r="A23" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23" s="21">
-        <v>0.97777777777777775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="19">
-        <v>0.97916666666666663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" s="21">
-        <v>0.98125000000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="19">
-        <v>0.98333333333333339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B27" s="21">
-        <v>0.98541666666666661</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="19">
-        <v>0.98819444444444438</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29" s="21">
-        <v>0.99236111111111114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="19">
-        <v>0.99583333333333324</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B31" s="21">
-        <v>0.99791666666666667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="22.5">
-      <c r="A34" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C46:K80">
-    <sortCondition ref="G46"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="47"/>
-    </row>
-    <row r="2" spans="1:3" ht="22.5">
-      <c r="A2" s="47"/>
-      <c r="B2" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="19">
-        <v>0.93402777777777779</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="21">
-        <v>0.93472222222222223</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0.93819444444444444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="19">
-        <v>0.93611111111111101</v>
-      </c>
-      <c r="C5" s="19">
-        <v>0.93958333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="21">
-        <v>0.9375</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0.94097222222222221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="19">
-        <v>0.93888888888888899</v>
-      </c>
-      <c r="C7" s="19">
-        <v>0.94236111111111109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="21">
-        <v>0.94027777777777777</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0.94374999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" s="19">
-        <v>0.94166666666666676</v>
-      </c>
-      <c r="C9" s="19">
-        <v>0.94513888888888886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="21">
-        <v>0.94305555555555554</v>
-      </c>
-      <c r="C10" s="21">
-        <v>0.94652777777777775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="19">
-        <v>0.94444444444444453</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0.94791666666666663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="21">
-        <v>0.9458333333333333</v>
-      </c>
-      <c r="C12" s="21">
-        <v>0.94930555555555562</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="19">
-        <v>0.9472222222222223</v>
-      </c>
-      <c r="C13" s="19">
-        <v>0.9506944444444444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="21">
-        <v>0.94861111111111107</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0.95208333333333339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="19">
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="C15" s="19">
-        <v>0.95347222222222217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="21">
-        <v>0.95138888888888884</v>
-      </c>
-      <c r="C16" s="21">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="19">
-        <v>0.95347222222222217</v>
-      </c>
-      <c r="C17" s="19">
-        <v>0.95694444444444438</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="21">
-        <v>0.95486111111111116</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="19">
-        <v>0.95694444444444438</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0.9604166666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" s="21">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C20" s="21">
-        <v>0.96180555555555547</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" s="19">
-        <v>0.95972222222222225</v>
-      </c>
-      <c r="C21" s="19">
-        <v>0.96319444444444446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="21">
-        <v>0.96111111111111114</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0.96458333333333324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B23" s="19">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="C23" s="19">
-        <v>0.96597222222222223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="21">
-        <v>0.96388888888888891</v>
-      </c>
-      <c r="C24" s="21">
-        <v>0.96736111111111101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B25" s="19">
-        <v>0.96527777777777779</v>
-      </c>
-      <c r="C25" s="19">
-        <v>0.96875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="21">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="C26" s="21">
-        <v>0.97013888888888899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="C27" s="19">
-        <v>0.97222222222222221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="22.5">
-      <c r="A28" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C28" s="21">
-        <v>0.97361111111111109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="22.5">
-      <c r="A29" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="C29" s="19">
-        <v>0.97569444444444453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C30" s="21">
-        <v>0.9770833333333333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31" s="19">
-        <v>0.96944444444444444</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B32" s="21">
-        <v>0.97083333333333333</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B33" s="19">
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I44:I74">
-    <sortCondition ref="I44"/>
-  </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C40"/>
-  <sheetViews>
-    <sheetView zoomScale="126" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="C1" s="48"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="19">
-        <v>0.9375</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="B4" s="21">
-        <v>0.94027777777777777</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0.9194444444444444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="19">
-        <v>0.94236111111111109</v>
-      </c>
-      <c r="C5" s="19">
-        <v>0.92152777777777783</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="21">
-        <v>0.94444444444444453</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0.92361111111111116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="19">
-        <v>0.94652777777777775</v>
-      </c>
-      <c r="C7" s="19">
-        <v>0.92569444444444438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="21">
-        <v>0.94930555555555562</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0.92847222222222225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" s="19">
-        <v>0.95138888888888884</v>
-      </c>
-      <c r="C9" s="19">
-        <v>0.93055555555555547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="21">
-        <v>0.95277777777777783</v>
-      </c>
-      <c r="C10" s="21">
-        <v>0.93194444444444446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="22.5">
-      <c r="A11" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11" s="19">
-        <v>0.95624999999999993</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0.93541666666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="21">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C12" s="21">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B13" s="19">
-        <v>0.95972222222222225</v>
-      </c>
-      <c r="C13" s="19">
-        <v>0.93888888888888899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="21">
-        <v>0.96111111111111114</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0.94027777777777777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="19">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="C15" s="19">
-        <v>0.94166666666666676</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="21">
-        <v>0.96527777777777779</v>
-      </c>
-      <c r="C16" s="21">
-        <v>0.94444444444444453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="B17" s="19">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="C17" s="19">
-        <v>0.9458333333333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="21">
-        <v>0.96944444444444444</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0.94861111111111107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="19">
-        <v>0.97083333333333333</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0.95000000000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="21">
-        <v>0.97291666666666676</v>
-      </c>
-      <c r="C20" s="21">
-        <v>0.95208333333333339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="19">
-        <v>0.97361111111111109</v>
-      </c>
-      <c r="C21" s="19">
-        <v>0.95277777777777783</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B22" s="21">
-        <v>0.97569444444444453</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="B23" s="19">
-        <v>0.9770833333333333</v>
-      </c>
-      <c r="C23" s="19">
-        <v>0.95624999999999993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" s="21">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="C24" s="21">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" s="19">
-        <v>0.98055555555555562</v>
-      </c>
-      <c r="C25" s="19">
-        <v>0.95972222222222225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B26" s="21">
-        <v>0.9819444444444444</v>
-      </c>
-      <c r="C26" s="21">
-        <v>0.96111111111111114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="19">
-        <v>0.98402777777777783</v>
-      </c>
-      <c r="C27" s="19">
-        <v>0.96319444444444446</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B28" s="21">
-        <v>0.9868055555555556</v>
-      </c>
-      <c r="C28" s="21">
-        <v>0.96597222222222223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="B29" s="19">
-        <v>0.9902777777777777</v>
-      </c>
-      <c r="C29" s="19">
-        <v>0.96944444444444444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B30" s="21">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="C30" s="21">
-        <v>0.97222222222222221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B31" s="19">
-        <v>0.99444444444444446</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="B32" s="21">
-        <v>0.99722222222222223</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="B33" s="19">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C34" s="21">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="19">
-        <v>0.9784722222222223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C36" s="21">
-        <v>0.98055555555555562</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="C37" s="19">
-        <v>0.98263888888888884</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C38" s="21">
-        <v>0.98472222222222217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="C39" s="19">
-        <v>0.98749999999999993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C40" s="21">
-        <v>0.98888888888888893</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G49:G87">
-    <sortCondition ref="G49"/>
-  </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -4067,15 +3366,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="30" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -4083,7 +3382,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B3" s="21">
         <v>0.94027777777777777</v>
@@ -4091,7 +3390,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B4" s="19">
         <v>0.94166666666666676</v>
@@ -4099,7 +3398,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B5" s="21">
         <v>0.94305555555555554</v>
@@ -4115,7 +3414,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B7" s="21">
         <v>0.94652777777777775</v>
@@ -4123,7 +3422,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B8" s="19">
         <v>0.94861111111111107</v>
@@ -4131,7 +3430,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B9" s="21">
         <v>0.95000000000000007</v>
@@ -4139,7 +3438,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B10" s="19">
         <v>0.95138888888888884</v>
@@ -4147,7 +3446,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B11" s="21">
         <v>0.95347222222222217</v>
@@ -4155,7 +3454,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B12" s="19">
         <v>0.95486111111111116</v>
@@ -4171,7 +3470,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="15" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B14" s="19">
         <v>0.95763888888888893</v>
@@ -4179,7 +3478,7 @@
     </row>
     <row r="15" spans="1:2" ht="22.5">
       <c r="A15" s="15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B15" s="21">
         <v>0.9590277777777777</v>
@@ -4187,7 +3486,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B16" s="19">
         <v>0.96180555555555547</v>
@@ -4203,7 +3502,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="40" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B18" s="19">
         <v>0.96527777777777779</v>
@@ -4211,7 +3510,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="40" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B19" s="21">
         <v>0.96736111111111101</v>
@@ -4219,7 +3518,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="40" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B20" s="19">
         <v>0.96944444444444444</v>
@@ -4227,7 +3526,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="40" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B21" s="21">
         <v>0.97083333333333333</v>
@@ -4235,7 +3534,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="40" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B22" s="19">
         <v>0.97291666666666676</v>
@@ -4243,7 +3542,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="40" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B23" s="21">
         <v>0.97430555555555554</v>
@@ -4251,7 +3550,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="40" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B24" s="19">
         <v>0.97638888888888886</v>
@@ -4259,7 +3558,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="40" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B25" s="21">
         <v>0.9784722222222223</v>
@@ -4267,7 +3566,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="40" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B26" s="19">
         <v>0.97986111111111107</v>
@@ -4275,7 +3574,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="40" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B27" s="21">
         <v>0.98125000000000007</v>
@@ -4283,7 +3582,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="40" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B28" s="19">
         <v>0.98263888888888884</v>
@@ -4291,7 +3590,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="40" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B29" s="21">
         <v>0.98472222222222217</v>
@@ -4299,7 +3598,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="40" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B30" s="19">
         <v>0.98611111111111116</v>
@@ -4307,7 +3606,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="40" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B31" s="21">
         <v>0.98819444444444438</v>
@@ -4315,7 +3614,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="40" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B32" s="19">
         <v>0.98958333333333337</v>
@@ -4323,7 +3622,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="40" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B33" s="21">
         <v>0.99097222222222225</v>
@@ -4338,12 +3637,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -4353,12 +3652,12 @@
         <v>57</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="34" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -4366,7 +3665,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B3" s="21">
         <v>0.93888888888888899</v>
@@ -4374,7 +3673,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B4" s="19">
         <v>0.94166666666666676</v>
@@ -4382,7 +3681,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B5" s="21">
         <v>0.94374999999999998</v>
@@ -4390,7 +3689,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B6" s="19">
         <v>0.94513888888888886</v>
@@ -4398,7 +3697,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B7" s="21">
         <v>0.9472222222222223</v>
@@ -4414,7 +3713,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="41" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B9" s="21">
         <v>0.95138888888888884</v>
@@ -4422,7 +3721,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="41" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B10" s="19">
         <v>0.95347222222222217</v>
@@ -4430,7 +3729,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="41" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B11" s="21">
         <v>0.95486111111111116</v>
@@ -4438,7 +3737,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="41" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B12" s="19">
         <v>0.95624999999999993</v>
@@ -4446,7 +3745,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="41" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B13" s="21">
         <v>0.95833333333333337</v>
@@ -4454,7 +3753,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="41" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B14" s="19">
         <v>0.9590277777777777</v>
@@ -4462,7 +3761,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="41" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B15" s="21">
         <v>0.96111111111111114</v>
@@ -4470,7 +3769,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="41" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B16" s="19">
         <v>0.96250000000000002</v>
@@ -4478,7 +3777,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="41" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B17" s="21">
         <v>0.96458333333333324</v>
@@ -4486,7 +3785,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="41" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B18" s="19">
         <v>0.96597222222222223</v>
@@ -4494,7 +3793,7 @@
     </row>
     <row r="19" spans="1:2" ht="24">
       <c r="A19" s="41" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B19" s="21">
         <v>0.96736111111111101</v>
@@ -4502,7 +3801,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="41" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B20" s="19">
         <v>0.96944444444444444</v>
@@ -4511,6 +3810,267 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.93958333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.94374999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.9506944444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.95416666666666661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.95972222222222225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="33">
+        <v>0.97152777777777777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="33">
+        <v>0.98055555555555562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.98333333333333339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0.9868055555555556</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:F37">
+    <sortCondition ref="F25"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.93958333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.94305555555555554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.9472222222222223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.94930555555555562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.95208333333333339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="33">
+        <v>0.95416666666666661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.95694444444444438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="33">
+        <v>0.95972222222222225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.96319444444444446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4533,7 +4093,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="22.5">
@@ -4825,267 +4385,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="33">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="16">
-        <v>0.93958333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="33">
-        <v>0.94374999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="B5" s="16">
-        <v>0.9506944444444444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="33">
-        <v>0.95416666666666661</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="16">
-        <v>0.95972222222222225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8" s="33">
-        <v>0.96458333333333324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" s="16">
-        <v>0.96875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" s="33">
-        <v>0.97152777777777777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="16">
-        <v>0.97569444444444453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="33">
-        <v>0.98055555555555562</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0.98333333333333339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="42" t="s">
-        <v>342</v>
-      </c>
-      <c r="B14" s="33">
-        <v>0.9868055555555556</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:F37">
-    <sortCondition ref="F25"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="B2" s="33">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3" s="16">
-        <v>0.93958333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="45" t="s">
-        <v>345</v>
-      </c>
-      <c r="B4" s="33">
-        <v>0.94097222222222221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="B5" s="16">
-        <v>0.94305555555555554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="B6" s="33">
-        <v>0.94513888888888886</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="B7" s="16">
-        <v>0.9472222222222223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="45" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8" s="33">
-        <v>0.94930555555555562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="45" t="s">
-        <v>350</v>
-      </c>
-      <c r="B9" s="16">
-        <v>0.95208333333333339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="45" t="s">
-        <v>351</v>
-      </c>
-      <c r="B10" s="33">
-        <v>0.95416666666666661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="45" t="s">
-        <v>352</v>
-      </c>
-      <c r="B11" s="16">
-        <v>0.95694444444444438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="45" t="s">
-        <v>353</v>
-      </c>
-      <c r="B12" s="33">
-        <v>0.95972222222222225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0.96319444444444446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" s="33">
-        <v>0.96527777777777779</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5104,7 +4403,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5205,7 +4504,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B14" s="19">
         <v>0.95694444444444438</v>
@@ -5361,7 +4660,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5446,7 +4745,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B12" s="2">
         <v>0.95208333333333339</v>
@@ -5594,7 +4893,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5706,7 +5005,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5847,7 +5146,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B19" s="21">
         <v>0.96597222222222223</v>
@@ -5940,40 +5239,864 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A5E20A-86AC-4468-93BC-D35FB1B749EF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.93958333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.94305555555555554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.94444444444444453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.94652777777777775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.94930555555555562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.9506944444444444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.95208333333333339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.95416666666666661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.95694444444444438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.9590277777777777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.9604166666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.96388888888888891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.96736111111111101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.97013888888888899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.97152777777777777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.97291666666666676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.97638888888888886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.97777777777777775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.97986111111111107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.9819444444444444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.98402777777777783</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.98611111111111116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.98749999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.9902777777777777</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.9916666666666667</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D753DD4C-B52C-46B6-B493-FAC7788185E4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A24:A30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.93888888888888899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.94027777777777777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.94166666666666676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.94444444444444453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.94652777777777775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="22.5">
+      <c r="A8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.94930555555555562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.9506944444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.95208333333333339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.95347222222222217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.95694444444444438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.95972222222222225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.96111111111111114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.96388888888888891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.96736111111111101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.97083333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.97361111111111109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0.97638888888888886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.97777777777777775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.98055555555555562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="19">
+        <v>0.9819444444444444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="21">
+        <v>0.98333333333333339</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FDB528-E196-4C04-9E3E-F1E016D7FB4F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.93888888888888899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.94305555555555554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.94444444444444453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.94652777777777775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.94861111111111107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.9506944444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.95347222222222217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.95763888888888893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.9590277777777777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.96180555555555547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.96388888888888891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.96805555555555556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.96944444444444444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.97152777777777777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.97361111111111109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="22.5">
+      <c r="A23" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.97777777777777775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.98125000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0.98333333333333339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.98541666666666661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.98819444444444438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.99236111111111114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="19">
+        <v>0.99583333333333324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="21">
+        <v>0.99791666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="19">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="21">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="22.5">
+      <c r="A34" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="19">
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="21">
+        <v>7.6388888888888886E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="19">
+        <v>9.7222222222222224E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C46:K80">
+    <sortCondition ref="G46"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Project2/info/Timetable.xlsx
+++ b/Project2/info/Timetable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3AE3F1-73F8-4AEE-86F9-0C81B0AAD492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB95B66-1F8F-46A6-96D1-0FE91B6EC635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line 1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="Line 7" sheetId="7" r:id="rId7"/>
     <sheet name="Line 8" sheetId="8" r:id="rId8"/>
     <sheet name="Line 9" sheetId="9" r:id="rId9"/>
-    <sheet name="Line 10 1" sheetId="22" r:id="rId10"/>
-    <sheet name="Line 10 2" sheetId="10" r:id="rId11"/>
-    <sheet name="Line 11 1" sheetId="11" r:id="rId12"/>
-    <sheet name="Line 11 2" sheetId="23" r:id="rId13"/>
+    <sheet name="Line 10 往航中路" sheetId="22" r:id="rId10"/>
+    <sheet name="Line 10 往虹桥火车站" sheetId="10" r:id="rId11"/>
+    <sheet name="Line 11 往嘉定北" sheetId="11" r:id="rId12"/>
+    <sheet name="Line 11 往花桥" sheetId="23" r:id="rId13"/>
     <sheet name="Line 12" sheetId="12" r:id="rId14"/>
     <sheet name="Line 13" sheetId="13" r:id="rId15"/>
     <sheet name="Line 16" sheetId="14" r:id="rId16"/>
@@ -2039,7 +2039,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2287,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F5D246-9742-41FC-96D7-01A75776877D}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2528,7 +2528,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:C3"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -3641,7 +3641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>

--- a/Project2/info/Timetable.xlsx
+++ b/Project2/info/Timetable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB95B66-1F8F-46A6-96D1-0FE91B6EC635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59742AE0-594A-4AD2-82EA-0F956D335F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line 1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,16 @@
     <sheet name="Line 7" sheetId="7" r:id="rId7"/>
     <sheet name="Line 8" sheetId="8" r:id="rId8"/>
     <sheet name="Line 9" sheetId="9" r:id="rId9"/>
-    <sheet name="Line 10 往航中路" sheetId="22" r:id="rId10"/>
-    <sheet name="Line 10 往虹桥火车站" sheetId="10" r:id="rId11"/>
-    <sheet name="Line 11 往嘉定北" sheetId="11" r:id="rId12"/>
-    <sheet name="Line 11 往花桥" sheetId="23" r:id="rId13"/>
-    <sheet name="Line 12" sheetId="12" r:id="rId14"/>
-    <sheet name="Line 13" sheetId="13" r:id="rId15"/>
-    <sheet name="Line 16" sheetId="14" r:id="rId16"/>
-    <sheet name="Line 17" sheetId="15" r:id="rId17"/>
+    <sheet name="Line 10" sheetId="24" r:id="rId10"/>
+    <sheet name="Line 10 往航中路" sheetId="22" r:id="rId11"/>
+    <sheet name="Line 10 往虹桥火车站" sheetId="10" r:id="rId12"/>
+    <sheet name="Line 11" sheetId="25" r:id="rId13"/>
+    <sheet name="Line 11 往嘉定北" sheetId="11" r:id="rId14"/>
+    <sheet name="Line 11 往花桥" sheetId="23" r:id="rId15"/>
+    <sheet name="Line 12" sheetId="12" r:id="rId16"/>
+    <sheet name="Line 13" sheetId="13" r:id="rId17"/>
+    <sheet name="Line 16" sheetId="14" r:id="rId18"/>
+    <sheet name="Line 17" sheetId="15" r:id="rId19"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="350">
   <si>
     <t>莘庄</t>
   </si>
@@ -1570,7 +1572,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1684,9 +1686,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2284,25 +2283,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F5D246-9742-41FC-96D7-01A75776877D}">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16262E24-8CC9-4539-B51F-62FE7FC266A5}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>205</v>
       </c>
       <c r="B2" s="19">
@@ -2310,7 +2309,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>206</v>
       </c>
       <c r="B3" s="21">
@@ -2318,7 +2317,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>207</v>
       </c>
       <c r="B4" s="19">
@@ -2326,7 +2325,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>208</v>
       </c>
       <c r="B5" s="21">
@@ -2334,7 +2333,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>209</v>
       </c>
       <c r="B6" s="19">
@@ -2342,7 +2341,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>210</v>
       </c>
       <c r="B7" s="21">
@@ -2350,7 +2349,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>211</v>
       </c>
       <c r="B8" s="19">
@@ -2358,7 +2357,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>175</v>
       </c>
       <c r="B9" s="21">
@@ -2366,7 +2365,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="46" t="s">
         <v>212</v>
       </c>
       <c r="B10" s="19">
@@ -2374,7 +2373,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="21">
@@ -2382,7 +2381,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>213</v>
       </c>
       <c r="B12" s="19">
@@ -2390,7 +2389,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>214</v>
       </c>
       <c r="B13" s="21">
@@ -2398,7 +2397,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="19">
@@ -2406,7 +2405,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="46" t="s">
         <v>215</v>
       </c>
       <c r="B15" s="21">
@@ -2414,7 +2413,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="46" t="s">
         <v>169</v>
       </c>
       <c r="B16" s="19">
@@ -2422,7 +2421,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>216</v>
       </c>
       <c r="B17" s="21">
@@ -2430,7 +2429,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="19">
@@ -2438,7 +2437,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>217</v>
       </c>
       <c r="B19" s="21">
@@ -2446,7 +2445,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>218</v>
       </c>
       <c r="B20" s="19">
@@ -2454,7 +2453,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="46" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="21">
@@ -2462,7 +2461,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="46" t="s">
         <v>219</v>
       </c>
       <c r="B22" s="19">
@@ -2470,7 +2469,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="46" t="s">
         <v>220</v>
       </c>
       <c r="B23" s="21">
@@ -2478,7 +2477,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="46" t="s">
         <v>221</v>
       </c>
       <c r="B24" s="19">
@@ -2486,35 +2485,11 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="46" t="s">
         <v>222</v>
       </c>
       <c r="B25" s="21">
         <v>0.96666666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" s="19">
-        <v>0.96944444444444444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="21">
-        <v>0.97083333333333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="B28" s="19">
-        <v>0.97222222222222221</v>
       </c>
     </row>
   </sheetData>
@@ -2524,244 +2499,116 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F5D246-9742-41FC-96D7-01A75776877D}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.96944444444444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.97083333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0.9375</v>
+        <v>222</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0.97013888888888899</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0.93819444444444444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>223</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="22.5">
       <c r="A4" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="19">
-        <v>0.93958333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>224</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.97361111111111109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="22.5">
       <c r="A5" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0.94097222222222221</v>
+        <v>225</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.97569444444444453</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.94236111111111109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="21">
-        <v>0.94374999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0.94513888888888886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="21">
-        <v>0.94652777777777775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.94791666666666663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="21">
-        <v>0.94930555555555562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0.9506944444444444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13" s="21">
-        <v>0.95208333333333339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.95347222222222217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="21">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="19">
-        <v>0.95694444444444438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="21">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0.9604166666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" s="21">
-        <v>0.96180555555555547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0.96319444444444446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="21">
-        <v>0.96458333333333324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="19">
-        <v>0.96597222222222223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" s="21">
-        <v>0.96736111111111101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" s="19">
-        <v>0.96875</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B25" s="21">
-        <v>0.97013888888888899</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" s="19">
-        <v>0.97222222222222221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="22.5">
-      <c r="A27" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B27" s="21">
-        <v>0.97361111111111109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="22.5">
-      <c r="A28" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" s="19">
-        <v>0.97569444444444453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B6" s="21">
         <v>0.9770833333333333</v>
       </c>
     </row>
@@ -2775,269 +2622,301 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C4CEEC-9D11-4723-BEC4-BF528B2ED18E}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A1:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.94027777777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.94236111111111109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.94444444444444453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.94652777777777775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.94930555555555562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.95277777777777783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="22.5">
+      <c r="A10" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.95624999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.95972222222222225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.96111111111111114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.96944444444444444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.97083333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.97291666666666676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.97361111111111109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.9770833333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.98055555555555562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.9819444444444444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0.98402777777777783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.9868055555555556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.9902777777777777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.99305555555555547</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="A6" sqref="A6:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0.9375</v>
+      <c r="A2" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0.99305555555555547</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0.94027777777777777</v>
+      <c r="A3" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.99444444444444446</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="19">
-        <v>0.94236111111111109</v>
+      <c r="A4" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0.99722222222222223</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0.94444444444444453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.94652777777777775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="21">
-        <v>0.94930555555555562</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0.95138888888888884</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="21">
-        <v>0.95277777777777783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="22.5">
-      <c r="A10" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.95624999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="21">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0.95972222222222225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="21">
-        <v>0.96111111111111114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="21">
-        <v>0.96527777777777779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="19">
-        <v>0.96666666666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="21">
-        <v>0.96944444444444444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0.97083333333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="21">
-        <v>0.97291666666666676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0.97361111111111109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B21" s="21">
-        <v>0.97569444444444453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" s="19">
-        <v>0.9770833333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" s="21">
-        <v>0.97916666666666663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B24" s="19">
-        <v>0.98055555555555562</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B25" s="21">
-        <v>0.9819444444444444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="B26" s="19">
-        <v>0.98402777777777783</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B27" s="21">
-        <v>0.9868055555555556</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B28" s="19">
-        <v>0.9902777777777777</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B29" s="21">
-        <v>0.99305555555555547</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="B30" s="19">
-        <v>0.99444444444444446</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="B31" s="21">
-        <v>0.99722222222222223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B5" s="19">
         <v>0.99930555555555556</v>
       </c>
     </row>
@@ -3050,301 +2929,85 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2FD463-8994-4E99-B1A2-EC39567131AC}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0.91666666666666663</v>
+      <c r="A2" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0.97222222222222221</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="48" t="s">
-        <v>302</v>
+      <c r="A3" s="47" t="s">
+        <v>250</v>
       </c>
       <c r="B3" s="21">
-        <v>0.9194444444444444</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="48" t="s">
-        <v>301</v>
+      <c r="A4" s="47" t="s">
+        <v>251</v>
       </c>
       <c r="B4" s="19">
-        <v>0.92152777777777783</v>
+        <v>0.9784722222222223</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="48" t="s">
-        <v>229</v>
+      <c r="A5" s="47" t="s">
+        <v>252</v>
       </c>
       <c r="B5" s="21">
-        <v>0.92361111111111116</v>
+        <v>0.98055555555555562</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
-        <v>230</v>
+      <c r="A6" s="47" t="s">
+        <v>253</v>
       </c>
       <c r="B6" s="19">
-        <v>0.92569444444444438</v>
+        <v>0.98263888888888884</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="48" t="s">
-        <v>231</v>
+      <c r="A7" s="47" t="s">
+        <v>254</v>
       </c>
       <c r="B7" s="21">
-        <v>0.92847222222222225</v>
+        <v>0.98472222222222217</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="48" t="s">
-        <v>232</v>
+      <c r="A8" s="47" t="s">
+        <v>255</v>
       </c>
       <c r="B8" s="19">
-        <v>0.93055555555555547</v>
+        <v>0.98749999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="48" t="s">
-        <v>233</v>
+      <c r="A9" s="47" t="s">
+        <v>256</v>
       </c>
       <c r="B9" s="21">
-        <v>0.93194444444444446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="22.5">
-      <c r="A10" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.93541666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="21">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0.93888888888888899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="21">
-        <v>0.94027777777777777</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.94166666666666676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="21">
-        <v>0.94444444444444453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="19">
-        <v>0.9458333333333333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="21">
-        <v>0.94861111111111107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0.95000000000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="21">
-        <v>0.95208333333333339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0.95277777777777783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="B21" s="21">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" s="19">
-        <v>0.95624999999999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" s="21">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="B24" s="19">
-        <v>0.95972222222222225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="B25" s="21">
-        <v>0.96111111111111114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="B26" s="19">
-        <v>0.96319444444444446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="B27" s="21">
-        <v>0.96597222222222223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="B28" s="19">
-        <v>0.96944444444444444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="B29" s="21">
-        <v>0.97222222222222221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="B30" s="21">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="B31" s="19">
-        <v>0.9784722222222223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="B32" s="21">
-        <v>0.98055555555555562</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="B33" s="19">
-        <v>0.98263888888888884</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="B34" s="21">
-        <v>0.98472222222222217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="B35" s="19">
-        <v>0.98749999999999993</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="B36" s="21">
         <v>0.98888888888888893</v>
       </c>
     </row>
@@ -3354,7 +3017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -3501,7 +3164,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>304</v>
       </c>
       <c r="B18" s="19">
@@ -3509,7 +3172,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>305</v>
       </c>
       <c r="B19" s="21">
@@ -3517,7 +3180,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>306</v>
       </c>
       <c r="B20" s="19">
@@ -3525,7 +3188,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>307</v>
       </c>
       <c r="B21" s="21">
@@ -3533,7 +3196,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="39" t="s">
         <v>308</v>
       </c>
       <c r="B22" s="19">
@@ -3541,7 +3204,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>309</v>
       </c>
       <c r="B23" s="21">
@@ -3549,7 +3212,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>310</v>
       </c>
       <c r="B24" s="19">
@@ -3557,7 +3220,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="39" t="s">
         <v>311</v>
       </c>
       <c r="B25" s="21">
@@ -3565,7 +3228,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>312</v>
       </c>
       <c r="B26" s="19">
@@ -3573,7 +3236,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="39" t="s">
         <v>313</v>
       </c>
       <c r="B27" s="21">
@@ -3581,7 +3244,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="39" t="s">
         <v>314</v>
       </c>
       <c r="B28" s="19">
@@ -3589,7 +3252,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="39" t="s">
         <v>315</v>
       </c>
       <c r="B29" s="21">
@@ -3597,7 +3260,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="39" t="s">
         <v>316</v>
       </c>
       <c r="B30" s="19">
@@ -3605,7 +3268,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="39" t="s">
         <v>317</v>
       </c>
       <c r="B31" s="21">
@@ -3613,7 +3276,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="39" t="s">
         <v>318</v>
       </c>
       <c r="B32" s="19">
@@ -3621,7 +3284,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="39" t="s">
         <v>319</v>
       </c>
       <c r="B33" s="21">
@@ -3637,7 +3300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -3712,7 +3375,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>320</v>
       </c>
       <c r="B9" s="21">
@@ -3720,7 +3383,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>321</v>
       </c>
       <c r="B10" s="19">
@@ -3728,7 +3391,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>322</v>
       </c>
       <c r="B11" s="21">
@@ -3736,7 +3399,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>323</v>
       </c>
       <c r="B12" s="19">
@@ -3744,7 +3407,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="40" t="s">
         <v>324</v>
       </c>
       <c r="B13" s="21">
@@ -3752,7 +3415,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>325</v>
       </c>
       <c r="B14" s="19">
@@ -3760,7 +3423,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="40" t="s">
         <v>305</v>
       </c>
       <c r="B15" s="21">
@@ -3768,7 +3431,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>326</v>
       </c>
       <c r="B16" s="19">
@@ -3776,7 +3439,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>327</v>
       </c>
       <c r="B17" s="21">
@@ -3784,7 +3447,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="40" t="s">
         <v>328</v>
       </c>
       <c r="B18" s="19">
@@ -3792,7 +3455,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="24">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>329</v>
       </c>
       <c r="B19" s="21">
@@ -3800,7 +3463,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="40" t="s">
         <v>330</v>
       </c>
       <c r="B20" s="19">
@@ -3813,7 +3476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3920,7 +3583,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>331</v>
       </c>
       <c r="B13" s="16">
@@ -3928,7 +3591,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>332</v>
       </c>
       <c r="B14" s="33">
@@ -3945,7 +3608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -3956,15 +3619,15 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>333</v>
       </c>
       <c r="B2" s="33">
@@ -3972,7 +3635,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>334</v>
       </c>
       <c r="B3" s="16">
@@ -3980,7 +3643,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>335</v>
       </c>
       <c r="B4" s="33">
@@ -3988,7 +3651,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>336</v>
       </c>
       <c r="B5" s="16">
@@ -3996,7 +3659,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>337</v>
       </c>
       <c r="B6" s="33">
@@ -4004,7 +3667,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>338</v>
       </c>
       <c r="B7" s="16">
@@ -4012,7 +3675,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>339</v>
       </c>
       <c r="B8" s="33">
@@ -4020,7 +3683,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>340</v>
       </c>
       <c r="B9" s="16">
@@ -4028,7 +3691,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>341</v>
       </c>
       <c r="B10" s="33">
@@ -4036,7 +3699,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>342</v>
       </c>
       <c r="B11" s="16">
@@ -4044,7 +3707,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>343</v>
       </c>
       <c r="B12" s="33">
@@ -4052,7 +3715,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>344</v>
       </c>
       <c r="B13" s="16">
@@ -4060,7 +3723,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>345</v>
       </c>
       <c r="B14" s="33">

--- a/Project2/info/Timetable.xlsx
+++ b/Project2/info/Timetable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59742AE0-594A-4AD2-82EA-0F956D335F85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFDAD81-72C5-4FE4-B98F-E23467A26E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line 1" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>友谊西路</t>
   </si>
   <si>
-    <t>富 锦 路</t>
-  </si>
-  <si>
     <t>浦东国际机场</t>
   </si>
   <si>
@@ -1346,6 +1343,10 @@
   </si>
   <si>
     <t>浦电路6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富锦路</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2037,18 +2038,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>287</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2269,7 +2270,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>349</v>
       </c>
       <c r="B29" s="21">
         <v>0.98402777777777783</v>
@@ -2294,15 +2295,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="19">
         <v>0.93402777777777779</v>
@@ -2310,7 +2311,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="21">
         <v>0.93472222222222223</v>
@@ -2318,7 +2319,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="19">
         <v>0.93611111111111101</v>
@@ -2326,7 +2327,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="21">
         <v>0.9375</v>
@@ -2334,7 +2335,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="19">
         <v>0.93888888888888899</v>
@@ -2342,7 +2343,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="21">
         <v>0.94027777777777777</v>
@@ -2350,7 +2351,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="19">
         <v>0.94166666666666676</v>
@@ -2358,7 +2359,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" s="21">
         <v>0.94305555555555554</v>
@@ -2366,7 +2367,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" s="19">
         <v>0.94444444444444453</v>
@@ -2374,7 +2375,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="21">
         <v>0.9458333333333333</v>
@@ -2382,7 +2383,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12" s="19">
         <v>0.9472222222222223</v>
@@ -2390,7 +2391,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13" s="21">
         <v>0.94861111111111107</v>
@@ -2398,7 +2399,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="19">
         <v>0.95000000000000007</v>
@@ -2406,7 +2407,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="21">
         <v>0.95138888888888884</v>
@@ -2414,7 +2415,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="19">
         <v>0.95347222222222217</v>
@@ -2422,7 +2423,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="21">
         <v>0.95486111111111116</v>
@@ -2438,7 +2439,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="21">
         <v>0.95833333333333337</v>
@@ -2446,7 +2447,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" s="19">
         <v>0.95972222222222225</v>
@@ -2454,7 +2455,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="21">
         <v>0.96111111111111114</v>
@@ -2462,7 +2463,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B22" s="19">
         <v>0.96250000000000002</v>
@@ -2470,7 +2471,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" s="21">
         <v>0.96388888888888891</v>
@@ -2478,7 +2479,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B24" s="19">
         <v>0.96527777777777779</v>
@@ -2486,7 +2487,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="21">
         <v>0.96666666666666667</v>
@@ -2510,15 +2511,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="21">
         <v>0.96666666666666667</v>
@@ -2526,7 +2527,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="19">
         <v>0.96944444444444444</v>
@@ -2534,7 +2535,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="21">
         <v>0.97083333333333333</v>
@@ -2542,7 +2543,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="19">
         <v>0.97222222222222221</v>
@@ -2566,15 +2567,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="21">
         <v>0.97013888888888899</v>
@@ -2582,7 +2583,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="19">
         <v>0.97222222222222221</v>
@@ -2590,7 +2591,7 @@
     </row>
     <row r="4" spans="1:2" ht="22.5">
       <c r="A4" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="21">
         <v>0.97361111111111109</v>
@@ -2598,7 +2599,7 @@
     </row>
     <row r="5" spans="1:2" ht="22.5">
       <c r="A5" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" s="19">
         <v>0.97569444444444453</v>
@@ -2606,7 +2607,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="21">
         <v>0.9770833333333333</v>
@@ -2634,15 +2635,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -2650,7 +2651,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="21">
         <v>0.94027777777777777</v>
@@ -2658,7 +2659,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" s="19">
         <v>0.94236111111111109</v>
@@ -2666,7 +2667,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="21">
         <v>0.94444444444444453</v>
@@ -2674,7 +2675,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="19">
         <v>0.94652777777777775</v>
@@ -2682,7 +2683,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="21">
         <v>0.94930555555555562</v>
@@ -2690,7 +2691,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="19">
         <v>0.95138888888888884</v>
@@ -2698,7 +2699,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" s="21">
         <v>0.95277777777777783</v>
@@ -2706,7 +2707,7 @@
     </row>
     <row r="10" spans="1:2" ht="22.5">
       <c r="A10" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" s="19">
         <v>0.95624999999999993</v>
@@ -2714,7 +2715,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="21">
         <v>0.95833333333333337</v>
@@ -2722,7 +2723,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B12" s="19">
         <v>0.95972222222222225</v>
@@ -2730,7 +2731,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B13" s="21">
         <v>0.96111111111111114</v>
@@ -2738,7 +2739,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B14" s="19">
         <v>0.96250000000000002</v>
@@ -2754,7 +2755,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="19">
         <v>0.96666666666666667</v>
@@ -2762,7 +2763,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="21">
         <v>0.96944444444444444</v>
@@ -2770,7 +2771,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" s="19">
         <v>0.97083333333333333</v>
@@ -2778,7 +2779,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="21">
         <v>0.97291666666666676</v>
@@ -2786,7 +2787,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="19">
         <v>0.97361111111111109</v>
@@ -2794,7 +2795,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" s="21">
         <v>0.97569444444444453</v>
@@ -2802,7 +2803,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B22" s="19">
         <v>0.9770833333333333</v>
@@ -2810,7 +2811,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="21">
         <v>0.97916666666666663</v>
@@ -2818,7 +2819,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="19">
         <v>0.98055555555555562</v>
@@ -2826,7 +2827,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" s="21">
         <v>0.9819444444444444</v>
@@ -2834,7 +2835,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="19">
         <v>0.98402777777777783</v>
@@ -2842,7 +2843,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="21">
         <v>0.9868055555555556</v>
@@ -2850,7 +2851,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" s="19">
         <v>0.9902777777777777</v>
@@ -2858,7 +2859,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="21">
         <v>0.99305555555555547</v>
@@ -2882,15 +2883,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="21">
         <v>0.99305555555555547</v>
@@ -2898,7 +2899,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" s="19">
         <v>0.99444444444444446</v>
@@ -2906,7 +2907,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="21">
         <v>0.99722222222222223</v>
@@ -2914,7 +2915,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B5" s="19">
         <v>0.99930555555555556</v>
@@ -2933,7 +2934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2FD463-8994-4E99-B1A2-EC39567131AC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -2941,15 +2942,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="21">
         <v>0.97222222222222221</v>
@@ -2957,7 +2958,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" s="21">
         <v>0.97499999999999998</v>
@@ -2965,7 +2966,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" s="19">
         <v>0.9784722222222223</v>
@@ -2973,7 +2974,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="21">
         <v>0.98055555555555562</v>
@@ -2981,7 +2982,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="19">
         <v>0.98263888888888884</v>
@@ -2989,7 +2990,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="21">
         <v>0.98472222222222217</v>
@@ -2997,7 +2998,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="19">
         <v>0.98749999999999993</v>
@@ -3005,7 +3006,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="21">
         <v>0.98888888888888893</v>
@@ -3029,15 +3030,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -3045,7 +3046,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" s="21">
         <v>0.94027777777777777</v>
@@ -3053,7 +3054,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="19">
         <v>0.94166666666666676</v>
@@ -3061,7 +3062,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" s="21">
         <v>0.94305555555555554</v>
@@ -3069,7 +3070,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="19">
         <v>0.94513888888888886</v>
@@ -3077,7 +3078,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" s="21">
         <v>0.94652777777777775</v>
@@ -3085,7 +3086,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" s="19">
         <v>0.94861111111111107</v>
@@ -3093,7 +3094,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B9" s="21">
         <v>0.95000000000000007</v>
@@ -3101,7 +3102,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B10" s="19">
         <v>0.95138888888888884</v>
@@ -3109,7 +3110,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" s="21">
         <v>0.95347222222222217</v>
@@ -3117,7 +3118,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" s="19">
         <v>0.95486111111111116</v>
@@ -3125,7 +3126,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="21">
         <v>0.95624999999999993</v>
@@ -3133,7 +3134,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B14" s="19">
         <v>0.95763888888888893</v>
@@ -3141,7 +3142,7 @@
     </row>
     <row r="15" spans="1:2" ht="22.5">
       <c r="A15" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15" s="21">
         <v>0.9590277777777777</v>
@@ -3149,7 +3150,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B16" s="19">
         <v>0.96180555555555547</v>
@@ -3157,7 +3158,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="21">
         <v>0.96319444444444446</v>
@@ -3165,7 +3166,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B18" s="19">
         <v>0.96527777777777779</v>
@@ -3173,7 +3174,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B19" s="21">
         <v>0.96736111111111101</v>
@@ -3181,7 +3182,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B20" s="19">
         <v>0.96944444444444444</v>
@@ -3189,7 +3190,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B21" s="21">
         <v>0.97083333333333333</v>
@@ -3197,7 +3198,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B22" s="19">
         <v>0.97291666666666676</v>
@@ -3205,7 +3206,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B23" s="21">
         <v>0.97430555555555554</v>
@@ -3213,7 +3214,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B24" s="19">
         <v>0.97638888888888886</v>
@@ -3221,7 +3222,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B25" s="21">
         <v>0.9784722222222223</v>
@@ -3229,7 +3230,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B26" s="19">
         <v>0.97986111111111107</v>
@@ -3237,7 +3238,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B27" s="21">
         <v>0.98125000000000007</v>
@@ -3245,7 +3246,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B28" s="19">
         <v>0.98263888888888884</v>
@@ -3253,7 +3254,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B29" s="21">
         <v>0.98472222222222217</v>
@@ -3261,7 +3262,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B30" s="19">
         <v>0.98611111111111116</v>
@@ -3269,7 +3270,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B31" s="21">
         <v>0.98819444444444438</v>
@@ -3277,7 +3278,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B32" s="19">
         <v>0.98958333333333337</v>
@@ -3285,7 +3286,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B33" s="21">
         <v>0.99097222222222225</v>
@@ -3312,15 +3313,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -3328,7 +3329,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="21">
         <v>0.93888888888888899</v>
@@ -3336,7 +3337,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B4" s="19">
         <v>0.94166666666666676</v>
@@ -3344,7 +3345,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" s="21">
         <v>0.94374999999999998</v>
@@ -3352,7 +3353,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" s="19">
         <v>0.94513888888888886</v>
@@ -3360,7 +3361,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="21">
         <v>0.9472222222222223</v>
@@ -3368,7 +3369,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="19">
         <v>0.95000000000000007</v>
@@ -3376,7 +3377,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" s="21">
         <v>0.95138888888888884</v>
@@ -3384,7 +3385,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B10" s="19">
         <v>0.95347222222222217</v>
@@ -3392,7 +3393,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B11" s="21">
         <v>0.95486111111111116</v>
@@ -3400,7 +3401,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B12" s="19">
         <v>0.95624999999999993</v>
@@ -3408,7 +3409,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B13" s="21">
         <v>0.95833333333333337</v>
@@ -3416,7 +3417,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B14" s="19">
         <v>0.9590277777777777</v>
@@ -3424,7 +3425,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B15" s="21">
         <v>0.96111111111111114</v>
@@ -3432,7 +3433,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B16" s="19">
         <v>0.96250000000000002</v>
@@ -3440,7 +3441,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B17" s="21">
         <v>0.96458333333333324</v>
@@ -3448,7 +3449,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B18" s="19">
         <v>0.96597222222222223</v>
@@ -3456,7 +3457,7 @@
     </row>
     <row r="19" spans="1:2" ht="24">
       <c r="A19" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B19" s="21">
         <v>0.96736111111111101</v>
@@ -3464,7 +3465,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B20" s="19">
         <v>0.96944444444444444</v>
@@ -3488,15 +3489,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B2" s="33">
         <v>0.9375</v>
@@ -3504,7 +3505,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B3" s="16">
         <v>0.93958333333333333</v>
@@ -3512,7 +3513,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="33">
         <v>0.94374999999999998</v>
@@ -3520,7 +3521,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B5" s="16">
         <v>0.9506944444444444</v>
@@ -3528,7 +3529,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B6" s="33">
         <v>0.95416666666666661</v>
@@ -3536,7 +3537,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7" s="16">
         <v>0.95972222222222225</v>
@@ -3544,7 +3545,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B8" s="33">
         <v>0.96458333333333324</v>
@@ -3552,7 +3553,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B9" s="16">
         <v>0.96875</v>
@@ -3560,7 +3561,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" s="33">
         <v>0.97152777777777777</v>
@@ -3568,7 +3569,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" s="16">
         <v>0.97569444444444453</v>
@@ -3576,7 +3577,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" s="33">
         <v>0.98055555555555562</v>
@@ -3584,7 +3585,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B13" s="16">
         <v>0.98333333333333339</v>
@@ -3592,7 +3593,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B14" s="33">
         <v>0.9868055555555556</v>
@@ -3620,15 +3621,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" s="33">
         <v>0.9375</v>
@@ -3636,7 +3637,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3" s="16">
         <v>0.93958333333333333</v>
@@ -3644,7 +3645,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" s="33">
         <v>0.94097222222222221</v>
@@ -3652,7 +3653,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B5" s="16">
         <v>0.94305555555555554</v>
@@ -3660,7 +3661,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B6" s="33">
         <v>0.94513888888888886</v>
@@ -3668,7 +3669,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B7" s="16">
         <v>0.9472222222222223</v>
@@ -3676,7 +3677,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B8" s="33">
         <v>0.94930555555555562</v>
@@ -3684,7 +3685,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B9" s="16">
         <v>0.95208333333333339</v>
@@ -3692,7 +3693,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B10" s="33">
         <v>0.95416666666666661</v>
@@ -3700,7 +3701,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B11" s="16">
         <v>0.95694444444444438</v>
@@ -3708,7 +3709,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B12" s="33">
         <v>0.95972222222222225</v>
@@ -3716,7 +3717,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B13" s="16">
         <v>0.96319444444444446</v>
@@ -3724,7 +3725,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="45" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="33">
         <v>0.96527777777777779</v>
@@ -3753,15 +3754,15 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="22.5">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2">
         <v>0.9291666666666667</v>
@@ -3769,7 +3770,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3">
         <v>0.93125000000000002</v>
@@ -3777,7 +3778,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2">
         <v>0.93611111111111101</v>
@@ -3785,7 +3786,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>0.93819444444444444</v>
@@ -3793,7 +3794,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2">
         <v>0.94027777777777777</v>
@@ -3801,7 +3802,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3">
         <v>0.94374999999999998</v>
@@ -3809,7 +3810,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2">
         <v>0.9458333333333333</v>
@@ -3817,7 +3818,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3">
         <v>0.94791666666666663</v>
@@ -3825,7 +3826,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="19">
         <v>0.95138888888888884</v>
@@ -3833,7 +3834,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="21">
         <v>0.95347222222222217</v>
@@ -3843,7 +3844,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="19">
         <v>0.95486111111111116</v>
@@ -3853,7 +3854,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="21">
         <v>0.95763888888888893</v>
@@ -3863,7 +3864,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="19">
         <v>0.9590277777777777</v>
@@ -3873,7 +3874,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="21">
         <v>0.96111111111111114</v>
@@ -3883,7 +3884,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="19">
         <v>0.96319444444444446</v>
@@ -3893,7 +3894,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="21">
         <v>0.96527777777777779</v>
@@ -3903,7 +3904,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="19">
         <v>0.96666666666666667</v>
@@ -3913,7 +3914,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="21">
         <v>0.96875</v>
@@ -3933,7 +3934,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="21">
         <v>0.97291666666666676</v>
@@ -3943,7 +3944,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="19">
         <v>0.97499999999999998</v>
@@ -3953,7 +3954,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="21">
         <v>0.97638888888888886</v>
@@ -3963,7 +3964,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="19">
         <v>0.9784722222222223</v>
@@ -3973,7 +3974,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="21">
         <v>0.98055555555555562</v>
@@ -3983,7 +3984,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="19">
         <v>0.98263888888888884</v>
@@ -3993,7 +3994,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="21">
         <v>0.98472222222222217</v>
@@ -4003,7 +4004,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="19">
         <v>0.98611111111111116</v>
@@ -4013,7 +4014,7 @@
     </row>
     <row r="29" spans="1:6" ht="22.5">
       <c r="A29" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="21">
         <v>0.99097222222222225</v>
@@ -4023,7 +4024,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="19">
         <v>0.99236111111111114</v>
@@ -4033,7 +4034,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="21">
         <v>0.99375000000000002</v>
@@ -4063,10 +4064,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4079,7 +4080,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="21">
         <v>0.93888888888888899</v>
@@ -4087,7 +4088,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="19">
         <v>0.94097222222222221</v>
@@ -4095,7 +4096,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="21">
         <v>0.94236111111111109</v>
@@ -4103,7 +4104,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="19">
         <v>0.94374999999999998</v>
@@ -4111,7 +4112,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="21">
         <v>0.94513888888888886</v>
@@ -4119,7 +4120,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="19">
         <v>0.9472222222222223</v>
@@ -4127,7 +4128,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="21">
         <v>0.94861111111111107</v>
@@ -4135,7 +4136,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19">
         <v>0.95000000000000007</v>
@@ -4143,7 +4144,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="21">
         <v>0.95138888888888884</v>
@@ -4151,7 +4152,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="19">
         <v>0.95347222222222217</v>
@@ -4159,7 +4160,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="21">
         <v>0.95486111111111116</v>
@@ -4167,7 +4168,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" s="19">
         <v>0.95694444444444438</v>
@@ -4175,7 +4176,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="21">
         <v>0.9590277777777777</v>
@@ -4183,7 +4184,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="19">
         <v>0.9604166666666667</v>
@@ -4191,7 +4192,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="21">
         <v>0.96250000000000002</v>
@@ -4199,7 +4200,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="19">
         <v>0.96388888888888891</v>
@@ -4207,7 +4208,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="21">
         <v>0.96527777777777779</v>
@@ -4215,7 +4216,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="19">
         <v>0.96736111111111101</v>
@@ -4223,7 +4224,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="21">
         <v>0.96875</v>
@@ -4231,7 +4232,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="19">
         <v>0.97083333333333333</v>
@@ -4239,7 +4240,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="21">
         <v>0.97222222222222221</v>
@@ -4247,7 +4248,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="19">
         <v>0.97430555555555554</v>
@@ -4255,7 +4256,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="21">
         <v>0.97569444444444453</v>
@@ -4263,7 +4264,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="19">
         <v>0.9770833333333333</v>
@@ -4271,7 +4272,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="21">
         <v>0.97916666666666663</v>
@@ -4279,7 +4280,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="19">
         <v>0.98055555555555562</v>
@@ -4287,7 +4288,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="21">
         <v>0.9819444444444444</v>
@@ -4295,7 +4296,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="19">
         <v>0.98402777777777783</v>
@@ -4320,15 +4321,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2">
         <v>0.9375</v>
@@ -4344,7 +4345,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2">
         <v>0.94027777777777777</v>
@@ -4352,7 +4353,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3">
         <v>0.94166666666666676</v>
@@ -4360,7 +4361,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2">
         <v>0.94236111111111109</v>
@@ -4368,7 +4369,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="3">
         <v>0.94374999999999998</v>
@@ -4376,7 +4377,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2">
         <v>0.9458333333333333</v>
@@ -4384,7 +4385,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="3">
         <v>0.9472222222222223</v>
@@ -4392,7 +4393,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2">
         <v>0.94930555555555562</v>
@@ -4400,7 +4401,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="3">
         <v>0.9506944444444444</v>
@@ -4408,7 +4409,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" s="2">
         <v>0.95208333333333339</v>
@@ -4416,7 +4417,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3">
         <v>0.95347222222222217</v>
@@ -4424,7 +4425,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="2">
         <v>0.9555555555555556</v>
@@ -4432,7 +4433,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="3">
         <v>0.95694444444444438</v>
@@ -4440,7 +4441,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="2">
         <v>0.95833333333333337</v>
@@ -4448,7 +4449,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="3">
         <v>0.95972222222222225</v>
@@ -4456,7 +4457,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2">
         <v>0.96111111111111114</v>
@@ -4464,7 +4465,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="3">
         <v>0.96319444444444446</v>
@@ -4480,7 +4481,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3">
         <v>0.96736111111111101</v>
@@ -4488,7 +4489,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2">
         <v>0.96875</v>
@@ -4496,7 +4497,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="3">
         <v>0.97083333333333333</v>
@@ -4504,7 +4505,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2">
         <v>0.97222222222222221</v>
@@ -4512,7 +4513,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3">
         <v>0.97361111111111109</v>
@@ -4520,7 +4521,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2">
         <v>0.97499999999999998</v>
@@ -4528,7 +4529,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3">
         <v>0.9770833333333333</v>
@@ -4553,10 +4554,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4569,7 +4570,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="3">
         <v>0.93888888888888899</v>
@@ -4577,7 +4578,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2">
         <v>0.94027777777777777</v>
@@ -4585,7 +4586,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="3">
         <v>0.94305555555555554</v>
@@ -4593,7 +4594,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2">
         <v>0.94513888888888886</v>
@@ -4601,7 +4602,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="3">
         <v>0.9472222222222223</v>
@@ -4609,7 +4610,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2">
         <v>0.94861111111111107</v>
@@ -4617,7 +4618,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3">
         <v>0.9506944444444444</v>
@@ -4625,7 +4626,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2">
         <v>0.95208333333333339</v>
@@ -4633,7 +4634,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3">
         <v>0.95416666666666661</v>
@@ -4641,7 +4642,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="19">
         <v>0.9555555555555556</v>
@@ -4665,15 +4666,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -4681,7 +4682,7 @@
     </row>
     <row r="3" spans="1:2" ht="22.5">
       <c r="A3" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="21">
         <v>0.93888888888888899</v>
@@ -4689,7 +4690,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="19">
         <v>0.94097222222222221</v>
@@ -4697,7 +4698,7 @@
     </row>
     <row r="5" spans="1:2" ht="22.5">
       <c r="A5" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="21">
         <v>0.94305555555555554</v>
@@ -4705,7 +4706,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="19">
         <v>0.94513888888888886</v>
@@ -4713,7 +4714,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="21">
         <v>0.94652777777777775</v>
@@ -4721,7 +4722,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="19">
         <v>0.94791666666666663</v>
@@ -4729,7 +4730,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="21">
         <v>0.94930555555555562</v>
@@ -4737,7 +4738,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="19">
         <v>0.9506944444444444</v>
@@ -4745,7 +4746,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="21">
         <v>0.95277777777777783</v>
@@ -4753,7 +4754,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="19">
         <v>0.95416666666666661</v>
@@ -4761,7 +4762,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="21">
         <v>0.9555555555555556</v>
@@ -4769,7 +4770,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="19">
         <v>0.95763888888888893</v>
@@ -4777,7 +4778,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="21">
         <v>0.9590277777777777</v>
@@ -4785,7 +4786,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="19">
         <v>0.9604166666666667</v>
@@ -4793,7 +4794,7 @@
     </row>
     <row r="17" spans="1:2" ht="22.5">
       <c r="A17" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="21">
         <v>0.96250000000000002</v>
@@ -4801,7 +4802,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="19">
         <v>0.96388888888888891</v>
@@ -4809,7 +4810,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B19" s="21">
         <v>0.96597222222222223</v>
@@ -4817,7 +4818,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="19">
         <v>0.96736111111111101</v>
@@ -4825,7 +4826,7 @@
     </row>
     <row r="21" spans="1:2" ht="22.5">
       <c r="A21" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="21">
         <v>0.96944444444444444</v>
@@ -4833,7 +4834,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="19">
         <v>0.97083333333333333</v>
@@ -4841,7 +4842,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="21">
         <v>0.97291666666666676</v>
@@ -4849,7 +4850,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" s="19">
         <v>0.97430555555555554</v>
@@ -4857,7 +4858,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="21">
         <v>0.97638888888888886</v>
@@ -4865,7 +4866,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" s="19">
         <v>0.97777777777777775</v>
@@ -4873,7 +4874,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="21">
         <v>0.97916666666666663</v>
@@ -4881,7 +4882,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="19">
         <v>0.98055555555555562</v>
@@ -4889,7 +4890,7 @@
     </row>
     <row r="29" spans="1:2" ht="22.5">
       <c r="A29" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="21">
         <v>0.9819444444444444</v>
@@ -4913,15 +4914,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -4929,7 +4930,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="3">
         <v>0.93958333333333333</v>
@@ -4937,7 +4938,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2">
         <v>0.94097222222222221</v>
@@ -4945,7 +4946,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3">
         <v>0.94305555555555554</v>
@@ -4953,7 +4954,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2">
         <v>0.94444444444444453</v>
@@ -4961,7 +4962,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="3">
         <v>0.94652777777777775</v>
@@ -4969,7 +4970,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2">
         <v>0.94791666666666663</v>
@@ -4977,7 +4978,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="3">
         <v>0.94930555555555562</v>
@@ -4985,7 +4986,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2">
         <v>0.9506944444444444</v>
@@ -4993,7 +4994,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="3">
         <v>0.95208333333333339</v>
@@ -5001,7 +5002,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="2">
         <v>0.95416666666666661</v>
@@ -5009,7 +5010,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3">
         <v>0.9555555555555556</v>
@@ -5017,7 +5018,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2">
         <v>0.95694444444444438</v>
@@ -5033,7 +5034,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2">
         <v>0.9604166666666667</v>
@@ -5041,7 +5042,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="3">
         <v>0.96250000000000002</v>
@@ -5049,7 +5050,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="2">
         <v>0.96388888888888891</v>
@@ -5057,7 +5058,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3">
         <v>0.96527777777777779</v>
@@ -5065,7 +5066,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="2">
         <v>0.96736111111111101</v>
@@ -5073,7 +5074,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="3">
         <v>0.96875</v>
@@ -5081,7 +5082,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="2">
         <v>0.97013888888888899</v>
@@ -5089,7 +5090,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="3">
         <v>0.97152777777777777</v>
@@ -5097,7 +5098,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="2">
         <v>0.97291666666666676</v>
@@ -5105,7 +5106,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="3">
         <v>0.97499999999999998</v>
@@ -5113,7 +5114,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="2">
         <v>0.97638888888888886</v>
@@ -5121,7 +5122,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="3">
         <v>0.97777777777777775</v>
@@ -5129,7 +5130,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="2">
         <v>0.97986111111111107</v>
@@ -5137,7 +5138,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="3">
         <v>0.9819444444444444</v>
@@ -5145,7 +5146,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="2">
         <v>0.98402777777777783</v>
@@ -5153,7 +5154,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" s="3">
         <v>0.98611111111111116</v>
@@ -5161,7 +5162,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="2">
         <v>0.98749999999999993</v>
@@ -5169,7 +5170,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B33" s="3">
         <v>0.9902777777777777</v>
@@ -5177,7 +5178,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="2">
         <v>0.9916666666666667</v>
@@ -5201,15 +5202,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -5217,7 +5218,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="21">
         <v>0.93888888888888899</v>
@@ -5225,7 +5226,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="19">
         <v>0.94027777777777777</v>
@@ -5233,7 +5234,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="21">
         <v>0.94166666666666676</v>
@@ -5241,7 +5242,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="19">
         <v>0.94444444444444453</v>
@@ -5249,7 +5250,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="21">
         <v>0.94652777777777775</v>
@@ -5257,7 +5258,7 @@
     </row>
     <row r="8" spans="1:2" ht="22.5">
       <c r="A8" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="19">
         <v>0.94930555555555562</v>
@@ -5265,7 +5266,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="21">
         <v>0.9506944444444444</v>
@@ -5273,7 +5274,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="19">
         <v>0.95208333333333339</v>
@@ -5281,7 +5282,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="21">
         <v>0.95347222222222217</v>
@@ -5289,7 +5290,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="19">
         <v>0.95486111111111116</v>
@@ -5297,7 +5298,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="21">
         <v>0.95694444444444438</v>
@@ -5305,7 +5306,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="19">
         <v>0.95833333333333337</v>
@@ -5313,7 +5314,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="21">
         <v>0.95972222222222225</v>
@@ -5321,7 +5322,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="19">
         <v>0.96111111111111114</v>
@@ -5337,7 +5338,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" s="19">
         <v>0.96388888888888891</v>
@@ -5345,7 +5346,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="21">
         <v>0.96527777777777779</v>
@@ -5353,7 +5354,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B20" s="19">
         <v>0.96736111111111101</v>
@@ -5361,7 +5362,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="21">
         <v>0.96875</v>
@@ -5369,7 +5370,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" s="19">
         <v>0.97083333333333333</v>
@@ -5377,7 +5378,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="21">
         <v>0.97222222222222221</v>
@@ -5385,7 +5386,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24" s="19">
         <v>0.97361111111111109</v>
@@ -5393,7 +5394,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B25" s="21">
         <v>0.97499999999999998</v>
@@ -5401,7 +5402,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B26" s="19">
         <v>0.97638888888888886</v>
@@ -5409,7 +5410,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="21">
         <v>0.97777777777777775</v>
@@ -5417,7 +5418,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="19">
         <v>0.97916666666666663</v>
@@ -5425,7 +5426,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29" s="21">
         <v>0.98055555555555562</v>
@@ -5433,7 +5434,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B30" s="19">
         <v>0.9819444444444444</v>
@@ -5441,7 +5442,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" s="21">
         <v>0.98333333333333339</v>
@@ -5468,15 +5469,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -5484,7 +5485,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" s="21">
         <v>0.93888888888888899</v>
@@ -5492,7 +5493,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="19">
         <v>0.94097222222222221</v>
@@ -5500,7 +5501,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B5" s="21">
         <v>0.94305555555555554</v>
@@ -5508,7 +5509,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B6" s="19">
         <v>0.94444444444444453</v>
@@ -5516,7 +5517,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" s="21">
         <v>0.94652777777777775</v>
@@ -5524,7 +5525,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" s="19">
         <v>0.94861111111111107</v>
@@ -5532,7 +5533,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="21">
         <v>0.9506944444444444</v>
@@ -5540,7 +5541,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" s="19">
         <v>0.95347222222222217</v>
@@ -5548,7 +5549,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="21">
         <v>0.95486111111111116</v>
@@ -5556,7 +5557,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="19">
         <v>0.95763888888888893</v>
@@ -5564,7 +5565,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13" s="21">
         <v>0.9590277777777777</v>
@@ -5572,7 +5573,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" s="19">
         <v>0.96180555555555547</v>
@@ -5580,7 +5581,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" s="21">
         <v>0.96388888888888891</v>
@@ -5588,7 +5589,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" s="19">
         <v>0.96527777777777779</v>
@@ -5596,7 +5597,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="21">
         <v>0.96666666666666667</v>
@@ -5604,7 +5605,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="19">
         <v>0.96805555555555556</v>
@@ -5612,7 +5613,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="21">
         <v>0.96944444444444444</v>
@@ -5628,7 +5629,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="21">
         <v>0.97361111111111109</v>
@@ -5636,7 +5637,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="19">
         <v>0.97569444444444453</v>
@@ -5644,7 +5645,7 @@
     </row>
     <row r="23" spans="1:2" ht="22.5">
       <c r="A23" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="21">
         <v>0.97777777777777775</v>
@@ -5652,7 +5653,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="19">
         <v>0.97916666666666663</v>
@@ -5660,7 +5661,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="21">
         <v>0.98125000000000007</v>
@@ -5668,7 +5669,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" s="19">
         <v>0.98333333333333339</v>
@@ -5676,7 +5677,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" s="21">
         <v>0.98541666666666661</v>
@@ -5684,7 +5685,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="19">
         <v>0.98819444444444438</v>
@@ -5692,7 +5693,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="21">
         <v>0.99236111111111114</v>
@@ -5700,7 +5701,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" s="19">
         <v>0.99583333333333324</v>
@@ -5708,7 +5709,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" s="21">
         <v>0.99791666666666667</v>
@@ -5716,7 +5717,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" s="19">
         <v>6.9444444444444447E-4</v>
@@ -5724,7 +5725,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" s="21">
         <v>3.472222222222222E-3</v>
@@ -5732,7 +5733,7 @@
     </row>
     <row r="34" spans="1:2" ht="22.5">
       <c r="A34" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" s="19">
         <v>5.5555555555555558E-3</v>
@@ -5740,7 +5741,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="21">
         <v>7.6388888888888886E-3</v>
@@ -5748,7 +5749,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="19">
         <v>9.7222222222222224E-3</v>
